--- a/data/Call Center Demo Scope.xlsx
+++ b/data/Call Center Demo Scope.xlsx
@@ -119,10 +119,6 @@
     <t>Upload the Invoice document(Invoice docx)</t>
   </si>
   <si>
-    <t>Email: hendersontracey@example.org
-Password: Amanda Hicks</t>
-  </si>
-  <si>
     <t>Invoice download</t>
   </si>
   <si>
@@ -136,31 +132,23 @@
         <color theme="1"/>
         <rFont val="Century Gothic"/>
       </rPr>
-      <t>30928602</t>
+      <t>36239634</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. I would like to check the details of my transaction
-2. The invoice number is 30928602.
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>How many transactions did I make?</t>
-    </r>
+    <t>Email: marvinjackson@example.com
+Password: Carmen Nixon</t>
+  </si>
+  <si>
+    <t>1. I would like to check the details of my transaction
+2. The invoice number is 36239634.0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,12 +185,6 @@
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Century Gothic"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -387,6 +369,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -400,9 +385,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -636,12 +618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
@@ -667,7 +649,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -685,14 +667,14 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -713,13 +695,13 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6"/>
@@ -731,14 +713,14 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -759,10 +741,10 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -775,8 +757,8 @@
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
@@ -787,27 +769,27 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>

--- a/data/Call Center Demo Scope.xlsx
+++ b/data/Call Center Demo Scope.xlsx
@@ -50,31 +50,6 @@
     <t xml:space="preserve">Guest User </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve">Hello
-1. My name is Holly Allen, and my email address is hollyallen@example.com 
-2. I would like to return my products 
-3. I would like to return my first product 
-4. The product I received was defective. 
-5. Yes, of course!
-6. I would like to check the status of my ticket </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>&lt;ticket_Number&gt;
-*Please add the ticket number in the message(6)</t>
-    </r>
-  </si>
-  <si>
     <t>To demonstrate the scenarios under each category, include as many questions as necessary</t>
   </si>
   <si>
@@ -110,12 +85,6 @@
     <t>Transaction-based interaction</t>
   </si>
   <si>
-    <t xml:space="preserve">1. I would like to check the details of my transaction
-2. I have an invoice number
-3. The invoice number is 30928602
-</t>
-  </si>
-  <si>
     <t>Upload the Invoice document(Invoice docx)</t>
   </si>
   <si>
@@ -140,8 +109,34 @@
 Password: Carmen Nixon</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Hello
+1. My name is Holly Allen, and my email address is hollyallen@example.com 
+2. I would like to return my products 
+3. I would like to return my first product 
+4. The product I received was defective. 
+5. Yes, of course!
+6. I would like to check the status of my ticket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Century Gothic"/>
+      </rPr>
+      <t>&lt;ticket_Number&gt;
+*Please add the ticket number in the message(6)</t>
+    </r>
+  </si>
+  <si>
     <t>1. I would like to check the details of my transaction
-2. The invoice number is 36239634.0.</t>
+2. The invoice number is 36239634.0
+3. Can you tell me the Transaction date of the Invoice?</t>
+  </si>
+  <si>
+    <t>1. I would like to check the details of my transaction
+2. The invoice number is 36239634.0.
+3. How many transaction I made?</t>
   </si>
 </sst>
 </file>
@@ -603,7 +598,7 @@
   <dimension ref="A1:F990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -656,11 +651,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="83.25" customHeight="1">
@@ -669,16 +664,16 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39" customHeight="1">
@@ -696,17 +691,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.80000000000001" customHeight="1">
@@ -715,16 +710,16 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1">
@@ -742,17 +737,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1">
@@ -760,7 +755,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -771,25 +766,25 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="B12" s="23"/>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
